--- a/db_reminder.xlsx
+++ b/db_reminder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ITECC05\PRX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\ITECC05\MAINPRX\PRX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BBE7A-162C-467E-B5FD-6AB0EA205040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213229DC-1736-484D-9915-0F1AF3F94270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="114">
   <si>
     <t>db_reminder</t>
   </si>
@@ -58,33 +58,18 @@
     <t>deleteActivity</t>
   </si>
   <si>
-    <t>getActiveRequests</t>
-  </si>
-  <si>
-    <t>approveRequest</t>
-  </si>
-  <si>
-    <t>denyRequest</t>
-  </si>
-  <si>
     <t>/api/signIn</t>
   </si>
   <si>
     <t>/api/logIn</t>
   </si>
   <si>
-    <t>/api/user/?</t>
-  </si>
-  <si>
     <t>/api/user/…/changeUsername/?</t>
   </si>
   <si>
     <t>/api/user/…/changePassword/?</t>
   </si>
   <si>
-    <t>/api/user/…/deleteAccount</t>
-  </si>
-  <si>
     <t>/api/admin/activities/add/?</t>
   </si>
   <si>
@@ -94,15 +79,6 @@
     <t>/api/admin/activites/delete/?</t>
   </si>
   <si>
-    <t>/api/admin/requests</t>
-  </si>
-  <si>
-    <t>/api/admin/requests/approve/:id</t>
-  </si>
-  <si>
-    <t>/api/admin/requests/deny/:id</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -283,12 +259,6 @@
     <t>getRequests</t>
   </si>
   <si>
-    <t>getDeniedRequests</t>
-  </si>
-  <si>
-    <t>getDeletedRequests</t>
-  </si>
-  <si>
     <t>createRequest</t>
   </si>
   <si>
@@ -298,15 +268,6 @@
     <t>/api/requests</t>
   </si>
   <si>
-    <t>/api/requests/active</t>
-  </si>
-  <si>
-    <t>/api/requests/denied</t>
-  </si>
-  <si>
-    <t>/api/requests/deleted</t>
-  </si>
-  <si>
     <t>/api/requests/create</t>
   </si>
   <si>
@@ -374,6 +335,33 @@
   </si>
   <si>
     <t>requestDescription</t>
+  </si>
+  <si>
+    <t>requestStatus</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>getRequestsByStatus</t>
+  </si>
+  <si>
+    <t>/api/admin/requests/status/?</t>
+  </si>
+  <si>
+    <t>/api/user/…/deleteAccount/:id</t>
+  </si>
+  <si>
+    <t>/api/requests/:status</t>
+  </si>
+  <si>
+    <t>/api/user</t>
   </si>
 </sst>
 </file>
@@ -753,23 +741,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.9140625" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="9" max="9" width="25.4140625" customWidth="1"/>
+    <col min="10" max="10" width="20.08203125" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="29.4140625" customWidth="1"/>
+    <col min="13" max="13" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -785,14 +784,8 @@
       <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -821,16 +814,10 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -859,723 +846,698 @@
         <v>11</v>
       </c>
       <c r="K5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="M5" t="s">
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="L6" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>255</v>
       </c>
       <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E27" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F27" t="s">
         <v>60</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G27" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H27" t="s">
         <v>62</v>
-      </c>
-      <c r="H25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E31" t="s">
         <v>32</v>
       </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
         <v>106</v>
       </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
         <v>107</v>
       </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
         <v>108</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="15.5" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D63" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M10 A12:A13 A11 E11:M11 A15:A16 A14 E14:M14 A20:A22 A17 E17:M17 A18 E18:M18 A19 E19:M19 M23:M62 E12:M13 E15:M16 E20:M22" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:M2 A12:A13 A11 E11:M11 A15:A16 A14 E14:M14 A20:A22 A17 E17:M17 A18 E18:M18 A19 E19:M19 M23:M62 E12:M13 E15:M16 E21:M22 E20:K20 M20 A8:M10 A3:K3 A7:J7 A1:L1 A4:J4 A5:J5 A6:C6 H6:J6 E6:F6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>